--- a/temp_doc/PERTA UJIAN FIX DKV.xlsx
+++ b/temp_doc/PERTA UJIAN FIX DKV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BB075C-782A-EA47-8DB9-F85B70E240C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A97AD0-9366-E04D-AEF1-35A18E9268D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B0018247-3466-0142-A6A2-4C9F9839E079}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{B0018247-3466-0142-A6A2-4C9F9839E079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="144">
   <si>
     <t>id </t>
   </si>
@@ -179,123 +179,6 @@
     <t>ZAKIRAH THALITA ZAHRAH</t>
   </si>
   <si>
-    <t>ADE SETYA CANDRA</t>
-  </si>
-  <si>
-    <t>ARIANSYAH</t>
-  </si>
-  <si>
-    <t>ARYA SUBAGJA</t>
-  </si>
-  <si>
-    <t>DIAN NOVITA SARI</t>
-  </si>
-  <si>
-    <t>DIDA PERKASA</t>
-  </si>
-  <si>
-    <t>EGHA PATRIANSYAH</t>
-  </si>
-  <si>
-    <t>FARHAN SETYAWAN</t>
-  </si>
-  <si>
-    <t>GITA INDAH SABANA</t>
-  </si>
-  <si>
-    <t>IBNU ADITYA ADNAN</t>
-  </si>
-  <si>
-    <t>IKHSAN BAYU NUGROHO</t>
-  </si>
-  <si>
-    <t>ISMAIL AHMAD SAHDAD</t>
-  </si>
-  <si>
-    <t>ISTAUFIRIN</t>
-  </si>
-  <si>
-    <t>IVAN FERDINAN</t>
-  </si>
-  <si>
-    <t>JEFRY HIDAYATULLAH</t>
-  </si>
-  <si>
-    <t>JONI</t>
-  </si>
-  <si>
-    <t>JUSTIN RAFAEL</t>
-  </si>
-  <si>
-    <t>LANANG SINGGIH PANGESTU</t>
-  </si>
-  <si>
-    <t>MARCELL RAKASE</t>
-  </si>
-  <si>
-    <t>MARTIN AL FATHONI</t>
-  </si>
-  <si>
-    <t>MOSES DOLVIN MAELISSA</t>
-  </si>
-  <si>
-    <t>MUHAMAD RIKO SYAHPUTRA</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NURSHAM AHMADINEJAD</t>
-  </si>
-  <si>
-    <t>MUTIA VARA DILLA</t>
-  </si>
-  <si>
-    <t>NADIA ARDHELIA PUTRI</t>
-  </si>
-  <si>
-    <t>NAFI'AJI VANOROSSI</t>
-  </si>
-  <si>
-    <t>NOFIA INDRIANI</t>
-  </si>
-  <si>
-    <t>RAFFAEL EDGINA</t>
-  </si>
-  <si>
-    <t>RAFI ACHMAD APRILIANDI</t>
-  </si>
-  <si>
-    <t>RAFKA AFRIZAL MUTTAQIN</t>
-  </si>
-  <si>
-    <t>RAIHAN DWI FEBRIYANTO</t>
-  </si>
-  <si>
-    <t>RAVI HAFIZ ARDIANSYAH</t>
-  </si>
-  <si>
-    <t>REGA JUVENSIA SAPUTRA</t>
-  </si>
-  <si>
-    <t>REHAN JULIANTO</t>
-  </si>
-  <si>
-    <t>RIFAT AKMAL</t>
-  </si>
-  <si>
-    <t>RIZKY DIAN PERMANA</t>
-  </si>
-  <si>
-    <t>RIZQI MUH AKBAR</t>
-  </si>
-  <si>
-    <t>RUDIYANSAH</t>
-  </si>
-  <si>
-    <t>TUBAGUS RAIHAN RAHMATULLOH HIDAYAT</t>
-  </si>
-  <si>
-    <t>VERDINAN WILLIAM HOLLE</t>
-  </si>
-  <si>
     <t>K010300981001</t>
   </si>
   <si>
@@ -431,138 +314,6 @@
     <t>K010300981045</t>
   </si>
   <si>
-    <t>K010300981046</t>
-  </si>
-  <si>
-    <t>K010300981047</t>
-  </si>
-  <si>
-    <t>K010300981048</t>
-  </si>
-  <si>
-    <t>K010300981049</t>
-  </si>
-  <si>
-    <t>K010300981050</t>
-  </si>
-  <si>
-    <t>K010300981051</t>
-  </si>
-  <si>
-    <t>K010300981052</t>
-  </si>
-  <si>
-    <t>K010300981053</t>
-  </si>
-  <si>
-    <t>K010300981054</t>
-  </si>
-  <si>
-    <t>K010300981055</t>
-  </si>
-  <si>
-    <t>K010300981056</t>
-  </si>
-  <si>
-    <t>K010300981057</t>
-  </si>
-  <si>
-    <t>K010300981058</t>
-  </si>
-  <si>
-    <t>K010300981059</t>
-  </si>
-  <si>
-    <t>K010300981060</t>
-  </si>
-  <si>
-    <t>K010300981061</t>
-  </si>
-  <si>
-    <t>K010300981062</t>
-  </si>
-  <si>
-    <t>K010300981063</t>
-  </si>
-  <si>
-    <t>K010300981064</t>
-  </si>
-  <si>
-    <t>K010300981065</t>
-  </si>
-  <si>
-    <t>K010300981066</t>
-  </si>
-  <si>
-    <t>K010300981067</t>
-  </si>
-  <si>
-    <t>K010300981068</t>
-  </si>
-  <si>
-    <t>K010300981069</t>
-  </si>
-  <si>
-    <t>K010300981070</t>
-  </si>
-  <si>
-    <t>K010300981071</t>
-  </si>
-  <si>
-    <t>K010300981072</t>
-  </si>
-  <si>
-    <t>K010300981073</t>
-  </si>
-  <si>
-    <t>K010300981074</t>
-  </si>
-  <si>
-    <t>K010300981075</t>
-  </si>
-  <si>
-    <t>K010300981076</t>
-  </si>
-  <si>
-    <t>K010300981077</t>
-  </si>
-  <si>
-    <t>K010300981078</t>
-  </si>
-  <si>
-    <t>K010300981079</t>
-  </si>
-  <si>
-    <t>K010300981080</t>
-  </si>
-  <si>
-    <t>K010300981081</t>
-  </si>
-  <si>
-    <t>K010300981082</t>
-  </si>
-  <si>
-    <t>K010300981083</t>
-  </si>
-  <si>
-    <t>K010300981084</t>
-  </si>
-  <si>
-    <t>K010300981085</t>
-  </si>
-  <si>
-    <t>K010300981086</t>
-  </si>
-  <si>
-    <t>K010300981087</t>
-  </si>
-  <si>
-    <t>K010300981088</t>
-  </si>
-  <si>
-    <t>K010300981089</t>
-  </si>
-  <si>
     <t>UH1TH*</t>
   </si>
   <si>
@@ -701,138 +452,6 @@
     <t>1045666</t>
   </si>
   <si>
-    <t>1046259</t>
-  </si>
-  <si>
-    <t>1047880</t>
-  </si>
-  <si>
-    <t>1048263</t>
-  </si>
-  <si>
-    <t>1049870</t>
-  </si>
-  <si>
-    <t>1050223</t>
-  </si>
-  <si>
-    <t>1051460</t>
-  </si>
-  <si>
-    <t>1052380</t>
-  </si>
-  <si>
-    <t>1053858</t>
-  </si>
-  <si>
-    <t>1054360</t>
-  </si>
-  <si>
-    <t>1055559</t>
-  </si>
-  <si>
-    <t>1056738</t>
-  </si>
-  <si>
-    <t>1057697</t>
-  </si>
-  <si>
-    <t>1058351</t>
-  </si>
-  <si>
-    <t>1059771</t>
-  </si>
-  <si>
-    <t>1060376</t>
-  </si>
-  <si>
-    <t>1061770</t>
-  </si>
-  <si>
-    <t>1062517</t>
-  </si>
-  <si>
-    <t>1063243</t>
-  </si>
-  <si>
-    <t>1064228</t>
-  </si>
-  <si>
-    <t>1065186</t>
-  </si>
-  <si>
-    <t>1066299</t>
-  </si>
-  <si>
-    <t>1067574</t>
-  </si>
-  <si>
-    <t>1068182</t>
-  </si>
-  <si>
-    <t>1069515</t>
-  </si>
-  <si>
-    <t>1070925</t>
-  </si>
-  <si>
-    <t>1071232</t>
-  </si>
-  <si>
-    <t>1072212</t>
-  </si>
-  <si>
-    <t>1073922</t>
-  </si>
-  <si>
-    <t>1074503</t>
-  </si>
-  <si>
-    <t>1075829</t>
-  </si>
-  <si>
-    <t>1076307</t>
-  </si>
-  <si>
-    <t>1077815</t>
-  </si>
-  <si>
-    <t>1078603</t>
-  </si>
-  <si>
-    <t>1079130</t>
-  </si>
-  <si>
-    <t>1080612</t>
-  </si>
-  <si>
-    <t>1081207</t>
-  </si>
-  <si>
-    <t>1082832</t>
-  </si>
-  <si>
-    <t>1083426</t>
-  </si>
-  <si>
-    <t>1084570</t>
-  </si>
-  <si>
-    <t>1085781</t>
-  </si>
-  <si>
-    <t>1086253</t>
-  </si>
-  <si>
-    <t>1087798</t>
-  </si>
-  <si>
-    <t>1088899</t>
-  </si>
-  <si>
-    <t>1089956</t>
-  </si>
-  <si>
     <t>ADITYA TANGGUH PRAMANA PUTRA</t>
   </si>
   <si>
@@ -849,21 +468,6 @@
   </si>
   <si>
     <t>RIDO SAPUTRO</t>
-  </si>
-  <si>
-    <t>ESMERALDA VALENCIA WIDJAJA</t>
-  </si>
-  <si>
-    <t>FAHIRA ANA PUTRI</t>
-  </si>
-  <si>
-    <t>MIXCEL DIMAS JUNIAWAN</t>
-  </si>
-  <si>
-    <t>RIO ARDIANSYAH</t>
-  </si>
-  <si>
-    <t>ZASKIA DEVINA ROSALINA</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C41B8C-87EE-4F4C-8F7E-96ABE72847B6}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A47" sqref="A47:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1261,10 +865,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1276,18 +880,18 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1299,18 +903,18 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1322,21 +926,21 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="D5">
         <v>1035404</v>
@@ -1345,18 +949,18 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1368,18 +972,18 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1391,21 +995,21 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D8">
         <v>1035404</v>
@@ -1414,18 +1018,18 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1437,18 +1041,18 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1460,21 +1064,21 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>1035404</v>
@@ -1483,18 +1087,18 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1506,21 +1110,21 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>1035404</v>
@@ -1529,18 +1133,18 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1552,18 +1156,18 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1575,18 +1179,18 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1598,18 +1202,18 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1621,18 +1225,18 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1644,18 +1248,18 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1667,18 +1271,18 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1690,18 +1294,18 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1713,18 +1317,18 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1736,18 +1340,18 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1759,18 +1363,18 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1782,18 +1386,18 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1805,18 +1409,18 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1828,18 +1432,18 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1851,18 +1455,18 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1874,18 +1478,18 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1897,18 +1501,18 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1920,18 +1524,18 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1943,18 +1547,18 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1966,18 +1570,18 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1989,21 +1593,21 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="D34">
         <v>1035404</v>
@@ -2012,18 +1616,18 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -2035,18 +1639,18 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -2058,21 +1662,21 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="D37">
         <v>1035404</v>
@@ -2081,18 +1685,18 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -2104,18 +1708,18 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -2127,18 +1731,18 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -2150,18 +1754,18 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -2173,18 +1777,18 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -2196,18 +1800,18 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -2219,18 +1823,18 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -2242,18 +1846,18 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -2265,18 +1869,18 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
@@ -2288,1022 +1892,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47">
-        <v>1044404</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48">
-        <v>1044404</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49">
-        <v>1044404</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50">
-        <v>1044404</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>225</v>
-      </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51">
-        <v>1044404</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52">
-        <v>1044404</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" t="s">
-        <v>271</v>
-      </c>
-      <c r="D53">
-        <v>1044404</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>137</v>
-      </c>
-      <c r="G53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D54">
-        <v>1044404</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <v>1044404</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56">
-        <v>1044404</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57">
-        <v>1044404</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>141</v>
-      </c>
-      <c r="G57" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <v>1044404</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G58" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59">
-        <v>1044404</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60">
-        <v>1044404</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>235</v>
-      </c>
-      <c r="B61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61">
-        <v>1044404</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>145</v>
-      </c>
-      <c r="G61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62">
-        <v>1044404</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>237</v>
-      </c>
-      <c r="B63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63">
-        <v>1044404</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>147</v>
-      </c>
-      <c r="G63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64">
-        <v>1044404</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>239</v>
-      </c>
-      <c r="B65" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65">
-        <v>1044404</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
-        <v>149</v>
-      </c>
-      <c r="G65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66">
-        <v>1044404</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>150</v>
-      </c>
-      <c r="G66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67">
-        <v>1044404</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>151</v>
-      </c>
-      <c r="G67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" t="s">
-        <v>273</v>
-      </c>
-      <c r="D68">
-        <v>1044404</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69">
-        <v>1044404</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>153</v>
-      </c>
-      <c r="G69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>244</v>
-      </c>
-      <c r="B70" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70">
-        <v>1044404</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>154</v>
-      </c>
-      <c r="G70" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>245</v>
-      </c>
-      <c r="B71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71">
-        <v>1044404</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>155</v>
-      </c>
-      <c r="G71" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>246</v>
-      </c>
-      <c r="B72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72">
-        <v>1044404</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>247</v>
-      </c>
-      <c r="B73" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73">
-        <v>1044404</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>157</v>
-      </c>
-      <c r="G73" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>248</v>
-      </c>
-      <c r="B74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74">
-        <v>1044404</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>158</v>
-      </c>
-      <c r="G74" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>249</v>
-      </c>
-      <c r="B75" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75">
-        <v>1044404</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>159</v>
-      </c>
-      <c r="G75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76">
-        <v>1044404</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>160</v>
-      </c>
-      <c r="G76" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>251</v>
-      </c>
-      <c r="B77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77">
-        <v>1044404</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G77" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78">
-        <v>1044404</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" t="s">
-        <v>162</v>
-      </c>
-      <c r="G78" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>253</v>
-      </c>
-      <c r="B79" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79">
-        <v>1044404</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>163</v>
-      </c>
-      <c r="G79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>254</v>
-      </c>
-      <c r="B80" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80">
-        <v>1044404</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>164</v>
-      </c>
-      <c r="G80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>255</v>
-      </c>
-      <c r="B81" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81">
-        <v>1044404</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>165</v>
-      </c>
-      <c r="G81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>256</v>
-      </c>
-      <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82">
-        <v>1044404</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>166</v>
-      </c>
-      <c r="G82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>257</v>
-      </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83">
-        <v>1044404</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" t="s">
-        <v>167</v>
-      </c>
-      <c r="G83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" t="s">
-        <v>274</v>
-      </c>
-      <c r="D84">
-        <v>1044404</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
-      </c>
-      <c r="G84" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>259</v>
-      </c>
-      <c r="B85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85">
-        <v>1044404</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>169</v>
-      </c>
-      <c r="G85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>260</v>
-      </c>
-      <c r="B86" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86">
-        <v>1044404</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
-      </c>
-      <c r="G86" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>261</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87">
-        <v>1044404</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>171</v>
-      </c>
-      <c r="G87" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>262</v>
-      </c>
-      <c r="B88" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88">
-        <v>1044404</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
-      </c>
-      <c r="G88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>263</v>
-      </c>
-      <c r="B89" t="s">
-        <v>173</v>
-      </c>
-      <c r="C89" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89">
-        <v>1044404</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>173</v>
-      </c>
-      <c r="G89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>264</v>
-      </c>
-      <c r="B90" t="s">
-        <v>174</v>
-      </c>
-      <c r="C90" t="s">
-        <v>275</v>
-      </c>
-      <c r="D90">
-        <v>1044404</v>
-      </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
-      </c>
-      <c r="G90" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/PERTA UJIAN FIX DKV.xlsx
+++ b/temp_doc/PERTA UJIAN FIX DKV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A97AD0-9366-E04D-AEF1-35A18E9268D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1052E-5568-7D4E-9460-7484CB8A6652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{B0018247-3466-0142-A6A2-4C9F9839E079}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD90"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/PERTA UJIAN FIX DKV.xlsx
+++ b/temp_doc/PERTA UJIAN FIX DKV.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9729C-8B3A-E64B-924A-EA51B7B80852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC45263-168D-0B41-B5DD-8CCE066B714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B0018247-3466-0142-A6A2-4C9F9839E079}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{B0018247-3466-0142-A6A2-4C9F9839E079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="193">
   <si>
     <t>id </t>
   </si>
@@ -179,172 +179,442 @@
     <t>ZAKIRAH THALITA ZAHRAH</t>
   </si>
   <si>
-    <t>ADITYA TANGGUH PRAMANA PUTRA</t>
-  </si>
-  <si>
-    <t>CARRYN FEBRIANTY</t>
-  </si>
-  <si>
-    <t>DJENAR MAHESA PUTRI</t>
-  </si>
-  <si>
-    <t>EKKLESIA FIRDA LIANA</t>
-  </si>
-  <si>
-    <t>NAILA ENJELITA</t>
-  </si>
-  <si>
-    <t>RIDO SAPUTRO</t>
-  </si>
-  <si>
     <t>CHRISTIAN JOSEPHINE</t>
   </si>
   <si>
-    <t>LEON ALEVI GUSTAN</t>
-  </si>
-  <si>
-    <t>K01030098006</t>
-  </si>
-  <si>
     <t>UH1XDKV</t>
   </si>
   <si>
-    <t>K01030098007</t>
-  </si>
-  <si>
-    <t>K01030098008</t>
-  </si>
-  <si>
-    <t>K01030098009</t>
-  </si>
-  <si>
-    <t>K01030098010</t>
-  </si>
-  <si>
-    <t>K01030098011</t>
-  </si>
-  <si>
-    <t>K01030098012</t>
-  </si>
-  <si>
-    <t>K01030098013</t>
-  </si>
-  <si>
-    <t>K01030098014</t>
-  </si>
-  <si>
-    <t>K01030098015</t>
-  </si>
-  <si>
-    <t>K01030098016</t>
-  </si>
-  <si>
-    <t>K01030098017</t>
-  </si>
-  <si>
-    <t>K01030098018</t>
-  </si>
-  <si>
-    <t>K01030098019</t>
-  </si>
-  <si>
-    <t>K01030098020</t>
-  </si>
-  <si>
-    <t>K01030098021</t>
-  </si>
-  <si>
-    <t>K01030098022</t>
-  </si>
-  <si>
-    <t>K01030098023</t>
-  </si>
-  <si>
-    <t>K01030098025</t>
-  </si>
-  <si>
-    <t>K01030098024</t>
-  </si>
-  <si>
-    <t>K01030098026</t>
-  </si>
-  <si>
-    <t>K01030098027</t>
-  </si>
-  <si>
-    <t>K01030098637</t>
-  </si>
-  <si>
-    <t>K01030098029</t>
-  </si>
-  <si>
-    <t>K01030098030</t>
-  </si>
-  <si>
-    <t>K01030098031</t>
-  </si>
-  <si>
-    <t>K01030098033</t>
-  </si>
-  <si>
-    <t>K01030098028</t>
-  </si>
-  <si>
-    <t>K01030098034</t>
-  </si>
-  <si>
-    <t>K01030098035</t>
-  </si>
-  <si>
-    <t>K01030098036</t>
-  </si>
-  <si>
-    <t>K01030098037</t>
-  </si>
-  <si>
-    <t>K01030098032</t>
-  </si>
-  <si>
-    <t>K01030098039</t>
-  </si>
-  <si>
-    <t>K01030098040</t>
-  </si>
-  <si>
-    <t>K01030098041</t>
-  </si>
-  <si>
-    <t>K01030098042</t>
-  </si>
-  <si>
-    <t>K01030098043</t>
-  </si>
-  <si>
-    <t>K01030098044</t>
-  </si>
-  <si>
-    <t>K01030098038</t>
-  </si>
-  <si>
-    <t>K01030098045</t>
-  </si>
-  <si>
-    <t>K01030098046</t>
-  </si>
-  <si>
-    <t>K01030098047</t>
-  </si>
-  <si>
-    <t>K01030098048</t>
-  </si>
-  <si>
-    <t>K01030098049</t>
-  </si>
-  <si>
-    <t>K01030098050</t>
-  </si>
-  <si>
-    <t>K01030098051</t>
+    <t>Aditya Tangguh Pramana Putra</t>
+  </si>
+  <si>
+    <t>Carryn Febrianty</t>
+  </si>
+  <si>
+    <t>Djenar Mahesa Putri</t>
+  </si>
+  <si>
+    <t>Ekklesia Firda Liana</t>
+  </si>
+  <si>
+    <t>Leon Alevi Gustan</t>
+  </si>
+  <si>
+    <t>Naila Enjelita</t>
+  </si>
+  <si>
+    <t>Rido Saputro</t>
+  </si>
+  <si>
+    <t>ADE SETYA CANDRA</t>
+  </si>
+  <si>
+    <t>ARIANSYAH</t>
+  </si>
+  <si>
+    <t>ARYA SUBAGJA</t>
+  </si>
+  <si>
+    <t>DIAN NOVITA SARI</t>
+  </si>
+  <si>
+    <t>DIDA PERKASA</t>
+  </si>
+  <si>
+    <t>EGHA PATRIANSYAH</t>
+  </si>
+  <si>
+    <t>Esmeralda Valencia Widjaja</t>
+  </si>
+  <si>
+    <t>Fahira Ana Putri</t>
+  </si>
+  <si>
+    <t>FARHAN SETYAWAN</t>
+  </si>
+  <si>
+    <t>GITA INDAH SABANA</t>
+  </si>
+  <si>
+    <t>IBNU ADITYA ADNAN</t>
+  </si>
+  <si>
+    <t>IKHSAN BAYU NUGROHO</t>
+  </si>
+  <si>
+    <t>ISMAIL AHMAD SAHDAD</t>
+  </si>
+  <si>
+    <t>ISTAUFIRIN</t>
+  </si>
+  <si>
+    <t>IVAN FERDINAN</t>
+  </si>
+  <si>
+    <t>JEFRY HIDAYATULLAH</t>
+  </si>
+  <si>
+    <t>JONI</t>
+  </si>
+  <si>
+    <t>JUSTIN RAFAEL</t>
+  </si>
+  <si>
+    <t>LANANG SINGGIH PANGESTU</t>
+  </si>
+  <si>
+    <t>MARCELL RAKASE</t>
+  </si>
+  <si>
+    <t>MARTIN AL FATHONI</t>
+  </si>
+  <si>
+    <t>Mixcel Dimas Juniawan</t>
+  </si>
+  <si>
+    <t>MOSES DOLVIN MAELISSA</t>
+  </si>
+  <si>
+    <t>MUHAMAD RIKO SYAHPUTRA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NURSHAM AHMADINEJAD</t>
+  </si>
+  <si>
+    <t>MUTIA VARA DILLA</t>
+  </si>
+  <si>
+    <t>NADIA ARDHELIA PUTRI</t>
+  </si>
+  <si>
+    <t>NAFI'AJI VANOROSSI</t>
+  </si>
+  <si>
+    <t>NOFIA INDRIANI</t>
+  </si>
+  <si>
+    <t>RAFFAEL EDGINA</t>
+  </si>
+  <si>
+    <t>RAFI ACHMAD APRILIANDI</t>
+  </si>
+  <si>
+    <t>RAFKA AFRIZAL MUTTAQIN</t>
+  </si>
+  <si>
+    <t>RAIHAN DWI FEBRIYANTO</t>
+  </si>
+  <si>
+    <t>RAVI HAFIZ ARDIANSYAH</t>
+  </si>
+  <si>
+    <t>REGA JUVENSIA SAPUTRA</t>
+  </si>
+  <si>
+    <t>REHAN JULIANTO</t>
+  </si>
+  <si>
+    <t>RIFAT AKMAL</t>
+  </si>
+  <si>
+    <t>Rio Ardiansyah</t>
+  </si>
+  <si>
+    <t>RIZKY DIAN PERMANA</t>
+  </si>
+  <si>
+    <t>RIZQI MUH AKBAR</t>
+  </si>
+  <si>
+    <t>RUDIYANSAH</t>
+  </si>
+  <si>
+    <t>TUBAGUS RAIHAN RAHMATULLOH HIDAYAT</t>
+  </si>
+  <si>
+    <t>VERDINAN WILLIAM HOLLE</t>
+  </si>
+  <si>
+    <t>Zaskia Devina Rosalina</t>
+  </si>
+  <si>
+    <t>K01030098101</t>
+  </si>
+  <si>
+    <t>K01030098102</t>
+  </si>
+  <si>
+    <t>K01030098103</t>
+  </si>
+  <si>
+    <t>K01030098104</t>
+  </si>
+  <si>
+    <t>K01030098105</t>
+  </si>
+  <si>
+    <t>K01030098106</t>
+  </si>
+  <si>
+    <t>K01030098107</t>
+  </si>
+  <si>
+    <t>K01030098108</t>
+  </si>
+  <si>
+    <t>K01030098109</t>
+  </si>
+  <si>
+    <t>K01030098110</t>
+  </si>
+  <si>
+    <t>K01030098111</t>
+  </si>
+  <si>
+    <t>K01030098112</t>
+  </si>
+  <si>
+    <t>K01030098113</t>
+  </si>
+  <si>
+    <t>K01030098114</t>
+  </si>
+  <si>
+    <t>K01030098115</t>
+  </si>
+  <si>
+    <t>K01030098116</t>
+  </si>
+  <si>
+    <t>K01030098117</t>
+  </si>
+  <si>
+    <t>K01030098118</t>
+  </si>
+  <si>
+    <t>K01030098119</t>
+  </si>
+  <si>
+    <t>K01030098120</t>
+  </si>
+  <si>
+    <t>K01030098121</t>
+  </si>
+  <si>
+    <t>K01030098122</t>
+  </si>
+  <si>
+    <t>K01030098123</t>
+  </si>
+  <si>
+    <t>K01030098124</t>
+  </si>
+  <si>
+    <t>K01030098125</t>
+  </si>
+  <si>
+    <t>K01030098126</t>
+  </si>
+  <si>
+    <t>K01030098127</t>
+  </si>
+  <si>
+    <t>K01030098128</t>
+  </si>
+  <si>
+    <t>K01030098129</t>
+  </si>
+  <si>
+    <t>K01030098130</t>
+  </si>
+  <si>
+    <t>K01030098131</t>
+  </si>
+  <si>
+    <t>K01030098132</t>
+  </si>
+  <si>
+    <t>K01030098133</t>
+  </si>
+  <si>
+    <t>K01030098134</t>
+  </si>
+  <si>
+    <t>K01030098135</t>
+  </si>
+  <si>
+    <t>K01030098136</t>
+  </si>
+  <si>
+    <t>K01030098137</t>
+  </si>
+  <si>
+    <t>K01030098138</t>
+  </si>
+  <si>
+    <t>K01030098139</t>
+  </si>
+  <si>
+    <t>K01030098140</t>
+  </si>
+  <si>
+    <t>K01030098141</t>
+  </si>
+  <si>
+    <t>K01030098142</t>
+  </si>
+  <si>
+    <t>K01030098143</t>
+  </si>
+  <si>
+    <t>K01030098144</t>
+  </si>
+  <si>
+    <t>K01030098145</t>
+  </si>
+  <si>
+    <t>K01030098146</t>
+  </si>
+  <si>
+    <t>K01030098147</t>
+  </si>
+  <si>
+    <t>K01030098148</t>
+  </si>
+  <si>
+    <t>K01030098149</t>
+  </si>
+  <si>
+    <t>K01030098150</t>
+  </si>
+  <si>
+    <t>K01030098151</t>
+  </si>
+  <si>
+    <t>K01030098152</t>
+  </si>
+  <si>
+    <t>K01030098153</t>
+  </si>
+  <si>
+    <t>K01030098154</t>
+  </si>
+  <si>
+    <t>K01030098155</t>
+  </si>
+  <si>
+    <t>K01030098156</t>
+  </si>
+  <si>
+    <t>K01030098157</t>
+  </si>
+  <si>
+    <t>K01030098158</t>
+  </si>
+  <si>
+    <t>K01030098159</t>
+  </si>
+  <si>
+    <t>K01030098160</t>
+  </si>
+  <si>
+    <t>K01030098161</t>
+  </si>
+  <si>
+    <t>K01030098162</t>
+  </si>
+  <si>
+    <t>K01030098163</t>
+  </si>
+  <si>
+    <t>K01030098164</t>
+  </si>
+  <si>
+    <t>K01030098165</t>
+  </si>
+  <si>
+    <t>K01030098166</t>
+  </si>
+  <si>
+    <t>K01030098167</t>
+  </si>
+  <si>
+    <t>K01030098168</t>
+  </si>
+  <si>
+    <t>K01030098169</t>
+  </si>
+  <si>
+    <t>K01030098170</t>
+  </si>
+  <si>
+    <t>K01030098171</t>
+  </si>
+  <si>
+    <t>K01030098172</t>
+  </si>
+  <si>
+    <t>K01030098173</t>
+  </si>
+  <si>
+    <t>K01030098174</t>
+  </si>
+  <si>
+    <t>K01030098175</t>
+  </si>
+  <si>
+    <t>K01030098176</t>
+  </si>
+  <si>
+    <t>K01030098177</t>
+  </si>
+  <si>
+    <t>K01030098178</t>
+  </si>
+  <si>
+    <t>K01030098179</t>
+  </si>
+  <si>
+    <t>K01030098180</t>
+  </si>
+  <si>
+    <t>K01030098181</t>
+  </si>
+  <si>
+    <t>K01030098182</t>
+  </si>
+  <si>
+    <t>K01030098183</t>
+  </si>
+  <si>
+    <t>K01030098184</t>
+  </si>
+  <si>
+    <t>K01030098185</t>
+  </si>
+  <si>
+    <t>K01030098186</t>
+  </si>
+  <si>
+    <t>K01030098187</t>
+  </si>
+  <si>
+    <t>K01030098188</t>
+  </si>
+  <si>
+    <t>K01030098189</t>
+  </si>
+  <si>
+    <t>K01030098190</t>
+  </si>
+  <si>
+    <t>K01030098191</t>
+  </si>
+  <si>
+    <t>K01030098192</t>
+  </si>
+  <si>
+    <t>UH1XIDKV</t>
   </si>
 </sst>
 </file>
@@ -367,10 +637,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="16"/>
+      <color rgb="FF858796"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,7 +651,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -404,14 +674,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,16 +1009,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C41B8C-87EE-4F4C-8F7E-96ABE72847B6}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,1085 +1046,2120 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1035404</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1035404</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1035404</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4">
         <v>1035404</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>1035404</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>1035404</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4">
         <v>1035404</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4">
         <v>1035404</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>1035404</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>1035404</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="2">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4">
         <v>1035404</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>1035404</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4">
         <v>1035404</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>1035404</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>1035404</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>1035404</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>1035404</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>1035404</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>1035404</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>1035404</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>1035404</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>1035404</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="2">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4">
         <v>1035404</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>1035404</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>1035404</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>1035404</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>1035404</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>1035404</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>1035404</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>1035404</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>1035404</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>1035404</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>1035404</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>1035404</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="2">
+        <v>54</v>
+      </c>
+      <c r="D36" s="4">
         <v>1035404</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>1035404</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>1035404</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="2">
+        <v>55</v>
+      </c>
+      <c r="D39" s="4">
         <v>1035404</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>1035404</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>1035404</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>1035404</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>1035404</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1043</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>1035404</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>1035404</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>1035404</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1046</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>1035404</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1047</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>1035404</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1057</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1058</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1059</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1060</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1061</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1067</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1068</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>169</v>
+      </c>
+      <c r="G71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1071</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1072</v>
+      </c>
+      <c r="B73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>171</v>
+      </c>
+      <c r="G73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1073</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1074</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1075</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1076</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1077</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1078</v>
+      </c>
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1079</v>
+      </c>
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1080</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1081</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>180</v>
+      </c>
+      <c r="G82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1082</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>181</v>
+      </c>
+      <c r="G83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1083</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1084</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>183</v>
+      </c>
+      <c r="G85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1085</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1086</v>
+      </c>
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>185</v>
+      </c>
+      <c r="G87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1087</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>186</v>
+      </c>
+      <c r="G88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1088</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1089</v>
+      </c>
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>188</v>
+      </c>
+      <c r="G90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1090</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>189</v>
+      </c>
+      <c r="G91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1091</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1092</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1036404</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/PERTA UJIAN FIX DKV.xlsx
+++ b/temp_doc/PERTA UJIAN FIX DKV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002C867C-364A-3E4C-AFA7-D399B106EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42C3D5-FE2D-7641-99C1-AA5F210ED82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{B0018247-3466-0142-A6A2-4C9F9839E079}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{B0018247-3466-0142-A6A2-4C9F9839E079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Yusron Al Fawaz</t>
   </si>
   <si>
-    <t>TJKT</t>
-  </si>
-  <si>
     <t>User123</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>Pass123*</t>
+  </si>
+  <si>
+    <t>IPA</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,22 +696,22 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -719,22 +719,22 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -742,22 +742,22 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -765,22 +765,22 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -788,22 +788,22 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -811,22 +811,22 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -834,22 +834,22 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -857,22 +857,22 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -880,22 +880,22 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -903,22 +903,22 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -926,22 +926,22 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -949,22 +949,22 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -972,22 +972,22 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -995,22 +995,22 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="4">
-        <v>1041404</v>
+        <v>1027404</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1018,22 +1018,22 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1041,22 +1041,22 @@
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1064,22 +1064,22 @@
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1087,22 +1087,22 @@
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1110,22 +1110,22 @@
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1133,22 +1133,22 @@
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1156,22 +1156,22 @@
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1179,22 +1179,22 @@
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1202,22 +1202,22 @@
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1225,22 +1225,22 @@
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="4">
-        <v>1041404</v>
+        <v>1028404</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.2">
